--- a/CV_Automation/data/TestData.xlsx
+++ b/CV_Automation/data/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7815"/>
+    <workbookView windowWidth="19200" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateNode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>syntax10</t>
+  </si>
+  <si>
+    <t>Create  Cabinet</t>
+  </si>
+  <si>
+    <t>Create Drawer</t>
+  </si>
+  <si>
+    <t>Create Folder</t>
+  </si>
+  <si>
+    <t>New Cabinet</t>
+  </si>
+  <si>
+    <t>New Drawer</t>
+  </si>
+  <si>
+    <t>New Folder</t>
   </si>
 </sst>
 </file>
@@ -47,8 +65,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -75,18 +93,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,58 +172,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +238,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,43 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,115 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,17 +432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,15 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,6 +491,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,13 +532,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,28 +554,28 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,94 +587,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1030,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1127,14 +1145,42 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
